--- a/data/trans_orig/IP16B98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C53578-A911-4D9A-917D-17C46F52C63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8B1E8E2-6659-4AFD-8572-C3DE07AA7F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A024659C-1494-4052-9591-5E4F944CCCA7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75C69C67-42C1-4EE4-BA5A-96001AADFDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
   <si>
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2012 (Tasa respuesta: 2,72%)</t>
   </si>
@@ -105,37 +105,37 @@
     <t>95,28%</t>
   </si>
   <si>
-    <t>74,4%</t>
+    <t>80,24%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>70,37%</t>
+    <t>75,69%</t>
   </si>
   <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>83,19%</t>
+    <t>84,02%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>25,6%</t>
+    <t>19,76%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>29,63%</t>
+    <t>24,31%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>16,81%</t>
+    <t>15,98%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -144,7 +144,7 @@
     <t>78,42%</t>
   </si>
   <si>
-    <t>25,03%</t>
+    <t>31,08%</t>
   </si>
   <si>
     <t>79,12%</t>
@@ -156,13 +156,13 @@
     <t>78,67%</t>
   </si>
   <si>
-    <t>40,49%</t>
+    <t>38,02%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>74,97%</t>
+    <t>68,92%</t>
   </si>
   <si>
     <t>20,88%</t>
@@ -174,55 +174,55 @@
     <t>21,33%</t>
   </si>
   <si>
-    <t>59,51%</t>
+    <t>61,98%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>75,8%</t>
+    <t>73,76%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>77,97%</t>
+    <t>75,62%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>24,2%</t>
+    <t>26,24%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>24,38%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2015 (Tasa respuesta: 3,06%)</t>
+    <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2016 (Tasa respuesta: 3,06%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -240,7 +240,7 @@
     <t>95,82%</t>
   </si>
   <si>
-    <t>81,33%</t>
+    <t>79,14%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -249,13 +249,13 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>88,33%</t>
+    <t>90,61%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>18,67%</t>
+    <t>20,86%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -264,85 +264,79 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>11,67%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>26,78%</t>
+    <t>26,66%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>34,88%</t>
+    <t>36,24%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>52,21%</t>
+    <t>53,75%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>73,22%</t>
+    <t>73,34%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>65,12%</t>
+    <t>63,76%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>47,79%</t>
+    <t>46,25%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>79,96%</t>
+    <t>79,88%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>84,42%</t>
+    <t>84,35%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>87,88%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>20,04%</t>
+    <t>20,12%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>15,58%</t>
+    <t>15,65%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>12,12%</t>
   </si>
 </sst>
 </file>
@@ -754,7 +748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F236B6-8449-43DC-B2C2-A4BC5637F953}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49FD2A2-7AC2-43E5-B0F2-4B76104C122B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1505,7 +1499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521E469C-33B6-411A-BFA5-6E933C457A01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99EC762-6E1B-4D76-9E7B-D5A8E57A0A90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2130,7 +2124,7 @@
         <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2139,13 @@
         <v>1522</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2160,13 +2154,13 @@
         <v>554</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2175,13 +2169,13 @@
         <v>2076</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8B1E8E2-6659-4AFD-8572-C3DE07AA7F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FED1F6B-B2EF-46F3-B6A7-61EDD5DDF16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75C69C67-42C1-4EE4-BA5A-96001AADFDE1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FAF1C166-69D0-483D-A974-A23BAC5F750B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2012 (Tasa respuesta: 2,72%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -102,121 +102,115 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>75,73%</t>
   </si>
   <si>
     <t>94,81%</t>
   </si>
   <si>
-    <t>84,02%</t>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>24,27%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>15,98%</t>
+    <t>16,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>79,12%</t>
+  </si>
+  <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>19,62%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>38,02%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>80,38%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>61,98%</t>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>75,22%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>24,78%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -237,106 +231,112 @@
     <t>23,25%</t>
   </si>
   <si>
+    <t>91,36%</t>
+  </si>
+  <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>77,6%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>90,61%</t>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>22,4%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>9,39%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>39,7%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>53,75%</t>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>60,3%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>46,25%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>80,44%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>87,88%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>19,56%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>12,12%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49FD2A2-7AC2-43E5-B0F2-4B76104C122B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C15EF-2882-4407-8456-34B80C19F576}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -869,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>3459</v>
+        <v>3235</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>3235</v>
+        <v>3459</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>3459</v>
+        <v>3235</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>3235</v>
+        <v>3459</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1021,10 +1021,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>13586</v>
+        <v>10149</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
@@ -1036,10 +1036,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>10149</v>
+        <v>13586</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>23</v>
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>673</v>
+        <v>627</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>27</v>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
@@ -1123,25 +1123,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10776</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>20</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>14259</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>16</v>
-      </c>
-      <c r="I9" s="7">
-        <v>10776</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1176,31 +1176,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3988</v>
+        <v>2206</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3988</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2206</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -1212,10 +1212,10 @@
         <v>6194</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1230,31 +1230,31 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1098</v>
+        <v>582</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>582</v>
+        <v>1098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1263,13 +1263,13 @@
         <v>1679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1278,25 +1278,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2788</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5086</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1331,31 +1331,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15589</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
         <v>30</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>21032</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15589</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -1367,13 +1367,13 @@
         <v>36622</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,31 +1385,31 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1771</v>
+        <v>1209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1209</v>
+        <v>1771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1418,13 +1418,13 @@
         <v>2980</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1433,25 +1433,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16798</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>32</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>22803</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>25</v>
-      </c>
-      <c r="I15" s="7">
-        <v>16798</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1499,7 +1499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99EC762-6E1B-4D76-9E7B-D5A8E57A0A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DE9D1F-40D0-45D6-B262-4A2DD4220420}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1516,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1617,31 +1617,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3503</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1401</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3503</v>
-      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1656,7 +1656,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1680,7 +1680,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,25 +1719,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3503</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1401</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3503</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1772,34 +1772,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14309</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>24</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>16387</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>21</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14309</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -1808,10 +1808,10 @@
         <v>30696</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1823,34 +1823,34 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>715</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1859,13 +1859,13 @@
         <v>715</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,25 +1874,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7">
+        <v>14309</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>25</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>17102</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>21</v>
-      </c>
-      <c r="I9" s="7">
-        <v>14309</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1930,13 +1930,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3788</v>
+        <v>3301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -1945,13 +1945,13 @@
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3301</v>
+        <v>3788</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -1963,10 +1963,10 @@
         <v>7089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1981,31 +1981,31 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>807</v>
+        <v>554</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>554</v>
+        <v>807</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2014,13 +2014,13 @@
         <v>1361</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>4595</v>
+        <v>3855</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2047,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3855</v>
+        <v>4595</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2085,13 +2085,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>21576</v>
+        <v>21114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2100,13 +2100,13 @@
         <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>21114</v>
+        <v>21576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2118,13 +2118,13 @@
         <v>42690</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,34 +2133,34 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>554</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1522</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>554</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2169,10 +2169,10 @@
         <v>2076</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>99</v>
@@ -2184,25 +2184,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7">
+        <v>21668</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>33</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>23098</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>32</v>
-      </c>
-      <c r="I15" s="7">
-        <v>21668</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
